--- a/Questions Completed.xlsx
+++ b/Questions Completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anshv\Desktop\Ansh\Lets Code\Data Structure\Data-Structure-Imp-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B20C526-B172-44AE-907E-405F80824DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA25AD6-344D-40A1-BC00-157FCB2F57D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{95C22184-E260-47B1-BD99-730AF9F51854}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Question Title</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Inorder : Replaced print data with count</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/description/</t>
+  </si>
+  <si>
+    <t>Inorder Traversal Basic Question</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6191D8A-3042-4A1E-980A-ED93C711C820}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,11 +482,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{95FBEE2F-E0C4-43EB-904D-4AE596A012CF}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{C5951925-9EDF-4442-9DE8-DA563154D690}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Questions Completed.xlsx
+++ b/Questions Completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anshv\Desktop\Ansh\Lets Code\Data Structure\Data-Structure-Imp-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA25AD6-344D-40A1-BC00-157FCB2F57D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0B56A6-8A77-491F-A7D7-17499A38B37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{95C22184-E260-47B1-BD99-730AF9F51854}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Question Title</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Inorder Traversal Basic Question</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/solutions/1770060/c-recursive-dfs-example-dry-run-well-explained/</t>
+  </si>
+  <si>
+    <t>Height  of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Height using Recursion left+right+1</t>
   </si>
 </sst>
 </file>
@@ -436,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6191D8A-3042-4A1E-980A-ED93C711C820}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,12 +502,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{95FBEE2F-E0C4-43EB-904D-4AE596A012CF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{C5951925-9EDF-4442-9DE8-DA563154D690}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{4472B5F0-F092-4AFD-B0A5-BBCD8A17D1F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>